--- a/classification/droptc/bert-base-uncased/unfreeze/70681460/prediction.xlsx
+++ b/classification/droptc/bert-base-uncased/unfreeze/70681460/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9914104342460632</v>
+        <v>0.9989112615585327</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9986180067062378</v>
+        <v>0.998874843120575</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9986697435379028</v>
+        <v>0.9988922476768494</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9245094060897827</v>
+        <v>0.9920750856399536</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9802968502044678</v>
+        <v>0.989976704120636</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.9989235997200012</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.792394757270813</v>
+        <v>0.9989199638366699</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9986017346382141</v>
+        <v>0.9989308714866638</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9986627101898193</v>
+        <v>0.986403226852417</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.998690664768219</v>
+        <v>0.9918051958084106</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9680993556976318</v>
+        <v>0.9989475607872009</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.99861741065979</v>
+        <v>0.9989332556724548</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9986661672592163</v>
+        <v>0.9907168745994568</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9888114929199219</v>
+        <v>0.9987961053848267</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9817076921463013</v>
+        <v>0.9921754002571106</v>
       </c>
     </row>
     <row r="17">
@@ -903,14 +903,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9986017346382141</v>
+        <v>0.7044994831085205</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9900622367858887</v>
+        <v>0.9870705008506775</v>
       </c>
     </row>
     <row r="19">
@@ -954,19 +954,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9986379742622375</v>
+        <v>0.9874827861785889</v>
       </c>
     </row>
     <row r="20">
@@ -982,19 +982,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.9891054034233093</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9986616373062134</v>
+        <v>0.9989035129547119</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9883335828781128</v>
+        <v>0.9948713779449463</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9903867840766907</v>
+        <v>0.998026430606842</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.998688280582428</v>
+        <v>0.9989104270935059</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9865267872810364</v>
+        <v>0.9988939166069031</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9888114929199219</v>
+        <v>0.9988996982574463</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9986650943756104</v>
+        <v>0.9989122152328491</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9986490607261658</v>
+        <v>0.9858664870262146</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9985865354537964</v>
+        <v>0.9989269375801086</v>
       </c>
     </row>
     <row r="30">
@@ -1262,19 +1262,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.893652617931366</v>
+        <v>0.9989429116249084</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9986673593521118</v>
+        <v>0.9989007711410522</v>
       </c>
     </row>
     <row r="32">
@@ -1323,14 +1323,14 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9986752867698669</v>
+        <v>0.5335013866424561</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9986745119094849</v>
+        <v>0.9959190487861633</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.9988887906074524</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.985127866268158</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9986104965209961</v>
+        <v>0.9871515035629272</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8876045942306519</v>
+        <v>0.9989223480224609</v>
       </c>
     </row>
     <row r="38">
@@ -1486,19 +1486,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.997154712677002</v>
+        <v>0.9916356801986694</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9984661340713501</v>
+        <v>0.9989157915115356</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9986091256141663</v>
+        <v>0.9913630485534668</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9772778153419495</v>
+        <v>0.9989203214645386</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9254843592643738</v>
+        <v>0.9987497329711914</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9986530542373657</v>
+        <v>0.9913234710693359</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9964284300804138</v>
+        <v>0.9989293217658997</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9985836744308472</v>
+        <v>0.9988952875137329</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9986644983291626</v>
+        <v>0.997687816619873</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9986473917961121</v>
+        <v>0.9297055602073669</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9984466433525085</v>
+        <v>0.9989180564880371</v>
       </c>
     </row>
     <row r="49">
@@ -1799,14 +1799,14 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9869994521141052</v>
+        <v>0.7420610189437866</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9984517097473145</v>
+        <v>0.9988850951194763</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9981424808502197</v>
+        <v>0.5766699314117432</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9986345171928406</v>
+        <v>0.9621329307556152</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4987456202507019</v>
+        <v>0.8529966473579407</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.998625636100769</v>
+        <v>0.9989332556724548</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.978146493434906</v>
+        <v>0.991959273815155</v>
       </c>
     </row>
     <row r="56">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9986369013786316</v>
+        <v>0.9866304993629456</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9983685612678528</v>
+        <v>0.9989166259765625</v>
       </c>
     </row>
     <row r="58">
@@ -2051,14 +2051,14 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9806370735168457</v>
+        <v>0.99237459897995</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9986298084259033</v>
+        <v>0.9986408352851868</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9888114929199219</v>
+        <v>0.9989332556724548</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9981790781021118</v>
+        <v>0.9307440519332886</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9968308806419373</v>
+        <v>0.9986304044723511</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9986673593521118</v>
+        <v>0.9988692402839661</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9985865354537964</v>
+        <v>0.9322400093078613</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9917140007019043</v>
+        <v>0.9921754002571106</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.9988855719566345</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.9785429239273071</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9796128273010254</v>
+        <v>0.9986404776573181</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.987873375415802</v>
+        <v>0.9988641738891602</v>
       </c>
     </row>
     <row r="70">
@@ -2382,19 +2382,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9986357092857361</v>
+        <v>0.985292375087738</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9986397624015808</v>
+        <v>0.9913358688354492</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9695037603378296</v>
+        <v>0.9988603591918945</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9986722469329834</v>
+        <v>0.9005838632583618</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.923475444316864</v>
+        <v>0.9989295601844788</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9985998272895813</v>
+        <v>0.9989000558853149</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9986641407012939</v>
+        <v>0.9530584812164307</v>
       </c>
     </row>
     <row r="77">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9986695051193237</v>
+        <v>0.9553734660148621</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9986868500709534</v>
+        <v>0.9988006353378296</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9984617233276367</v>
+        <v>0.9989338517189026</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9986379742622375</v>
+        <v>0.9989259839057922</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9983834028244019</v>
+        <v>0.9988806843757629</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.815871000289917</v>
+        <v>0.9982883334159851</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.979302704334259</v>
+        <v>0.9922080636024475</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7900745868682861</v>
+        <v>0.9989334940910339</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9909895658493042</v>
+        <v>0.9989124536514282</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9985974431037903</v>
+        <v>0.9989014863967896</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9675559997558594</v>
+        <v>0.9915810227394104</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9986080527305603</v>
+        <v>0.992048442363739</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9917085766792297</v>
+        <v>0.9988773465156555</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.9918051958084106</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9986697435379028</v>
+        <v>0.9989332556724548</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9754255414009094</v>
+        <v>0.9988852143287659</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9986891150474548</v>
+        <v>0.9988865256309509</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9986104965209961</v>
+        <v>0.9989151954650879</v>
       </c>
     </row>
     <row r="95">
@@ -3082,19 +3082,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9986215829849243</v>
+        <v>0.991205632686615</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9842433929443359</v>
+        <v>0.9988375306129456</v>
       </c>
     </row>
     <row r="97">
@@ -3143,14 +3143,14 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9986220598220825</v>
+        <v>0.9426663517951965</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9986673593521118</v>
+        <v>0.9989157915115356</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9986080527305603</v>
+        <v>0.9988920092582703</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9984775185585022</v>
+        <v>0.9987976551055908</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9445475339889526</v>
+        <v>0.9989225268363953</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9980353713035583</v>
+        <v>0.9879187941551208</v>
       </c>
     </row>
     <row r="103">
@@ -3311,14 +3311,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8710297346115112</v>
+        <v>0.9989006519317627</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9986726045608521</v>
+        <v>0.998924195766449</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.998648464679718</v>
+        <v>0.9989116191864014</v>
       </c>
     </row>
     <row r="106">
@@ -3390,19 +3390,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E106" t="b">
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9980776309967041</v>
+        <v>0.9909862279891968</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9986481070518494</v>
+        <v>0.9763956069946289</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.986512303352356</v>
+        <v>0.9989172220230103</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9869994521141052</v>
+        <v>0.8914391994476318</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9604218602180481</v>
+        <v>0.9988837838172913</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9985087513923645</v>
+        <v>0.457190603017807</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9913617968559265</v>
+        <v>0.9988428354263306</v>
       </c>
     </row>
     <row r="113">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3595,10 +3595,10 @@
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9453259706497192</v>
+        <v>0.9988144636154175</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9055911898612976</v>
+        <v>0.8425259590148926</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.9988083839416504</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.998647153377533</v>
+        <v>0.9988985061645508</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9980201721191406</v>
+        <v>0.9989223480224609</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9135065078735352</v>
+        <v>0.99886155128479</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9795984625816345</v>
+        <v>0.9989332556724548</v>
       </c>
     </row>
     <row r="120">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3791,10 +3791,10 @@
         </is>
       </c>
       <c r="E120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9986453652381897</v>
+        <v>0.9620811939239502</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9986233711242676</v>
+        <v>0.7857295870780945</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9891095161437988</v>
+        <v>0.9916356801986694</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9986530542373657</v>
+        <v>0.9989321827888489</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9986469149589539</v>
+        <v>0.9912363290786743</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9907627701759338</v>
+        <v>0.9988982677459717</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9558355808258057</v>
+        <v>0.986842930316925</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9917085766792297</v>
+        <v>0.9901795387268066</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.998494029045105</v>
+        <v>0.9988769888877869</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9859841465950012</v>
+        <v>0.9989235997200012</v>
       </c>
     </row>
     <row r="130">
@@ -4062,19 +4062,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E130" t="b">
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9600968360900879</v>
+        <v>0.9989094734191895</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9739272594451904</v>
+        <v>0.9988897442817688</v>
       </c>
     </row>
     <row r="132">
@@ -4118,19 +4118,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E132" t="b">
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9986773133277893</v>
+        <v>0.9901056885719299</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9987034797668457</v>
+        <v>0.9920750856399536</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.998521625995636</v>
+        <v>0.9989332556724548</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9986659288406372</v>
+        <v>0.9988963603973389</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9739272594451904</v>
+        <v>0.9989332556724548</v>
       </c>
     </row>
     <row r="137">
@@ -4263,14 +4263,14 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9784029722213745</v>
+        <v>0.9902790188789368</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9985417127609253</v>
+        <v>0.988283097743988</v>
       </c>
     </row>
     <row r="139">
@@ -4314,19 +4314,19 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E139" t="b">
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9986786246299744</v>
+        <v>0.9873896837234497</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9902985692024231</v>
+        <v>0.9916356801986694</v>
       </c>
     </row>
     <row r="141">
@@ -4370,19 +4370,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E141" t="b">
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9986253976821899</v>
+        <v>0.9910520911216736</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9986799359321594</v>
+        <v>0.9989332556724548</v>
       </c>
     </row>
     <row r="143">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.8851515054702759</v>
+        <v>0.9983670115470886</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9987009763717651</v>
+        <v>0.9988792538642883</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.990039050579071</v>
+        <v>0.998857855796814</v>
       </c>
     </row>
     <row r="146">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4519,10 +4519,10 @@
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9355720281600952</v>
+        <v>0.991205632686615</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9917140007019043</v>
+        <v>0.9987527132034302</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9371896386146545</v>
+        <v>0.9988920092582703</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.9989321827888489</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9882556200027466</v>
+        <v>0.5026372075080872</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9983618855476379</v>
+        <v>0.9988794922828674</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9983894824981689</v>
+        <v>0.9894315004348755</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9986875653266907</v>
+        <v>0.9231081008911133</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.8893365263938904</v>
+        <v>0.998645007610321</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.5673152208328247</v>
+        <v>0.998906135559082</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9979622364044189</v>
+        <v>0.9989235997200012</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9986671209335327</v>
+        <v>0.9913630485534668</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9983618855476379</v>
+        <v>0.9989332556724548</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9799630045890808</v>
+        <v>0.9989100694656372</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9984263181686401</v>
+        <v>0.9989321827888489</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9985333681106567</v>
+        <v>0.9890131950378418</v>
       </c>
     </row>
     <row r="162">
@@ -4958,19 +4958,19 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E162" t="b">
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9986791014671326</v>
+        <v>0.985127866268158</v>
       </c>
     </row>
     <row r="163">
@@ -4986,19 +4986,19 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E163" t="b">
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9986860156059265</v>
+        <v>0.9178420305252075</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.998584508895874</v>
+        <v>0.9989035129547119</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9876359105110168</v>
+        <v>0.9921754002571106</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9986675977706909</v>
+        <v>0.9989210367202759</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9986760020256042</v>
+        <v>0.9877337217330933</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9754893779754639</v>
+        <v>0.9911421537399292</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9986739158630371</v>
+        <v>0.992214024066925</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9817076921463013</v>
+        <v>0.9988940358161926</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.8692193031311035</v>
+        <v>0.9989321827888489</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9986433386802673</v>
+        <v>0.9989350438117981</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.600614607334137</v>
+        <v>0.9696047306060791</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9986922144889832</v>
+        <v>0.9989331364631653</v>
       </c>
     </row>
     <row r="175">
@@ -5322,19 +5322,19 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E175" t="b">
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9981130361557007</v>
+        <v>0.3435300588607788</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9710644483566284</v>
+        <v>0.9989245533943176</v>
       </c>
     </row>
     <row r="177">
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E177" t="b">
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9985049962997437</v>
+        <v>0.9899938702583313</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9986379742622375</v>
+        <v>0.9985347986221313</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9986726045608521</v>
+        <v>0.9989117383956909</v>
       </c>
     </row>
     <row r="180">
@@ -5462,19 +5462,19 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E180" t="b">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.988395094871521</v>
+        <v>0.9988829493522644</v>
       </c>
     </row>
     <row r="181">
@@ -5490,19 +5490,19 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E181" t="b">
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9985358715057373</v>
+        <v>0.9197325110435486</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9978274703025818</v>
+        <v>0.9988824725151062</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9917923212051392</v>
+        <v>0.9988654851913452</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9913617968559265</v>
+        <v>0.9989043474197388</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.998648464679718</v>
+        <v>0.9989262223243713</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4460901319980621</v>
+        <v>0.9988881945610046</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9985257983207703</v>
+        <v>0.9988865256309509</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9986819624900818</v>
+        <v>0.9989280104637146</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9913617968559265</v>
+        <v>0.9913234710693359</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9863972067832947</v>
+        <v>0.9989374279975891</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9985658526420593</v>
+        <v>0.9988328814506531</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9917433857917786</v>
+        <v>0.9914645552635193</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9986234903335571</v>
+        <v>0.9989012479782104</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9917085766792297</v>
+        <v>0.9877788424491882</v>
       </c>
     </row>
     <row r="195">
@@ -5887,14 +5887,14 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.7718795537948608</v>
+        <v>0.9988887906074524</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9986981153488159</v>
+        <v>0.9988954067230225</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.99853515625</v>
+        <v>0.99887615442276</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9986887574195862</v>
+        <v>0.9913234710693359</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9726170301437378</v>
+        <v>0.9988804459571838</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9986145496368408</v>
+        <v>0.9989186525344849</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>0.978762686252594</v>
+        <v>0.9988613128662109</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9986228942871094</v>
+        <v>0.9910956621170044</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9773485660552979</v>
+        <v>0.5465608239173889</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
-        </is>
-      </c>
       <c r="E204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9754893779754639</v>
+        <v>0.9923754334449768</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9986740350723267</v>
+        <v>0.9987766146659851</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9782286286354065</v>
+        <v>0.9988700747489929</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9620872139930725</v>
+        <v>0.9989142417907715</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.9989223480224609</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9986490607261658</v>
+        <v>0.9987265467643738</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9983023405075073</v>
+        <v>0.9902212619781494</v>
       </c>
     </row>
   </sheetData>
